--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_16_28.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/40/Output_16_28.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>40194.5816985946</v>
+        <v>7998721.758020327</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>40194.5816985946</v>
+        <v>7998721.758020327</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>62034.39585273967</v>
+        <v>6225328.498341279</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62034.39585273967</v>
+        <v>6225328.498341279</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1610249676.623928</v>
+        <v>61911378.99582621</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>14250.91668750866</v>
+        <v>1482226.44718621</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>27307.98622844888</v>
+        <v>2767638.858619163</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>40365.05576938907</v>
+        <v>4053051.270052119</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>55357.87579995052</v>
+        <v>5206763.265472331</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>68982.50003759447</v>
+        <v>6491324.368115199</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>82607.12427523844</v>
+        <v>7775885.470758062</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>96234.36998264764</v>
+        <v>9061801.559321806</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>109859.7150839963</v>
+        <v>10347339.42727949</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>125638.0855977272</v>
+        <v>11298835.2021033</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>140159.1122660305</v>
+        <v>12438511.2995172</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>154680.1389343338</v>
+        <v>13578187.3969311</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>169201.1656026371</v>
+        <v>14717863.49434501</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>183722.1922709404</v>
+        <v>15857539.59175892</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>199613.9656129542</v>
+        <v>16831602.52941103</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>218696.5083234701</v>
+        <v>17394797.28886</v>
       </c>
     </row>
   </sheetData>
